--- a/LrcModify/csv/fix_lrc/lrc_df_ABBA_Andante Andante.xlsx
+++ b/LrcModify/csv/fix_lrc/lrc_df_ABBA_Andante Andante.xlsx
@@ -406,12 +406,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[00:07.600]</t>
+          <t>[00:01.740]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -433,12 +433,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[00:08.600]</t>
+          <t>[00:02.740]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -460,12 +460,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[00:42.800]</t>
+          <t>[00:30.460]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -487,12 +487,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[00:43.800]</t>
+          <t>[00:35.960]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -510,12 +510,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[00:49.700]</t>
+          <t>[00:37.450]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[00:57.700]</t>
+          <t>[00:43.650]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -560,12 +560,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[00:51.600]</t>
+          <t>[00:44.840]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[00:57.600]</t>
+          <t>[00:50.840]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -610,12 +610,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[00:58.600]</t>
+          <t>[00:51.840]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[01:03.000]</t>
+          <t>[00:54.080]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[01:07.700]</t>
+          <t>[00:58.150]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -687,12 +687,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[01:08.700]</t>
+          <t>[00:59.150]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[01:14.600]</t>
+          <t>[01:05.140]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -737,12 +737,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[01:17.000]</t>
+          <t>[01:06.280]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[01:20.400]</t>
+          <t>[01:12.020]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -787,12 +787,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[01:28.300]</t>
+          <t>[01:13.710]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[01:28.490]</t>
+          <t>[01:20.030]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -837,12 +837,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[01:34.700]</t>
+          <t>[01:20.650]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[01:29.600]</t>
+          <t>[01:22.840]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[01:34.200]</t>
+          <t>[01:26.900]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -914,12 +914,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[01:37.100]</t>
+          <t>[01:28.090]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[01:43.100]</t>
+          <t>[01:29.590]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -964,12 +964,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[01:43.800]</t>
+          <t>[01:31.460]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[01:43.600]</t>
+          <t>[01:34.140]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[01:44.700]</t>
+          <t>[01:35.150]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[01:48.300]</t>
+          <t>[01:40.010]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[01:52.800]</t>
+          <t>[01:42.260]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[01:57.800]</t>
+          <t>[01:47.260]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[01:57.900]</t>
+          <t>[01:49.070]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[02:02.400]</t>
+          <t>[01:51.320]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[02:02.000]</t>
+          <t>[01:54.880]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[02:06.200]</t>
+          <t>[01:56.200]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[02:06.300]</t>
+          <t>[01:58.010]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[02:12.000]</t>
+          <t>[01:58.580]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[02:12.200]</t>
+          <t>[02:02.200]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[02:23.900]</t>
+          <t>[02:14.170]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1318,12 +1318,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[02:28.000]</t>
+          <t>[02:19.980]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[02:32.100]</t>
+          <t>[02:21.290]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[02:36.300]</t>
+          <t>[02:27.110]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[02:40.400]</t>
+          <t>[02:28.420]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[02:48.900]</t>
+          <t>[02:34.670]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[02:46.700]</t>
+          <t>[02:35.350]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[02:52.500]</t>
+          <t>[02:37.730]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[02:54.500]</t>
+          <t>[02:41.530]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1518,12 +1518,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[02:56.100]</t>
+          <t>[02:42.590]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1545,12 +1545,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[02:53.100]</t>
+          <t>[02:44.090]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[02:53.900]</t>
+          <t>[02:45.970]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[02:56.900]</t>
+          <t>[02:48.970]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[03:04.400]</t>
+          <t>[02:49.720]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[03:07.500]</t>
+          <t>[02:54.530]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1668,12 +1668,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[03:10.100]</t>
+          <t>[02:56.590]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[03:16.300]</t>
+          <t>[03:01.710]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1718,12 +1718,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[03:15.900]</t>
+          <t>[03:03.470]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[03:16.000]</t>
+          <t>[03:05.280]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[03:13.900]</t>
+          <t>[03:05.970]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[03:20.700]</t>
+          <t>[03:09.350]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[03:24.100]</t>
+          <t>[03:10.590]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[03:24.300]</t>
+          <t>[03:12.410]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[03:21.500]</t>
+          <t>[03:13.030]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[03:26.600]</t>
+          <t>[03:17.140]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1918,12 +1918,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[03:49.100]</t>
+          <t>[03:35.590]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[03:54.800]</t>
+          <t>[03:40.660]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1968,12 +1968,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[03:54.300]</t>
+          <t>[03:42.410]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[03:58.800]</t>
+          <t>[03:44.660]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[04:02.100]</t>
+          <t>[03:48.590]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2045,12 +2045,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[04:02.500]</t>
+          <t>[03:49.530]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[04:03.900]</t>
+          <t>[03:51.470]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[03:59.900]</t>
+          <t>[03:51.970]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[04:08.500]</t>
+          <t>[03:55.530]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2145,12 +2145,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[04:09.500]</t>
+          <t>[03:56.530]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[04:08.600]</t>
+          <t>[03:59.140]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[04:10.600]</t>
+          <t>[03:59.340]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[04:29.100]</t>
+          <t>[04:18.290]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2245,12 +2245,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:01.747</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[04:32.000]</t>
+          <t>[04:19.480]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
